--- a/biology/Biologie cellulaire et moléculaire/Réarrangement_d'Amadori/Réarrangement_d'Amadori.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Réarrangement_d'Amadori/Réarrangement_d'Amadori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9arrangement_d%27Amadori</t>
+          <t>Réarrangement_d'Amadori</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réarrangement d'Amadori est une réaction organique qui décrit l'isomérisation (le réarrangement), catalysée par un acide ou une base, de la glycosylamine d'un aldose. Ce réarrangement a été découvert par le chimiste organique Mario Amadori en 1925, alors qu'il étudiait les réactions de Maillard (dont le réarrangement d'Amadori constitue une étape)[1]. Cette réaction est importante dans la chimie des glucides.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réarrangement d'Amadori est une réaction organique qui décrit l'isomérisation (le réarrangement), catalysée par un acide ou une base, de la glycosylamine d'un aldose. Ce réarrangement a été découvert par le chimiste organique Mario Amadori en 1925, alors qu'il étudiait les réactions de Maillard (dont le réarrangement d'Amadori constitue une étape). Cette réaction est importante dans la chimie des glucides.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9arrangement_d%27Amadori</t>
+          <t>Réarrangement_d'Amadori</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mécanisme de réaction est expliqué à partir de la réaction du D-mannose dans sa forme fermée (1) et ouverte (2) avec de l'ammoniac pour produire le 1,1-amino-alcool (3), qui est instable et perd de l'eau pour former la glycosylamine (avec sa forme ouverte imine (5) et fermée hemiaminal (4)), qui est le point de départ pour le réarrangement d'Amadori proprement dit.
 Par traitement de la glycosylamine avec de la pyridine et de l'anhydride acétique, le groupe imine se réorganise et l'intermédiaire énol, à son tour, se réorganise en cétone. Dans cette réaction particulière, tous les groupes alcools et amines sont également acylés .
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9arrangement_d%27Amadori</t>
+          <t>Réarrangement_d'Amadori</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Produit d'Amadori</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un produit d'Amadori est un intermédiaire dans la production d'un produit de glycation avancé (Advanced glycation end-product (AGE)) qui sont les produits finaux de la réaction de glycation. Les réactions sont les suivantes : 
 Formation d'une base de Schiff : par exemple, le groupe aldéhyde d'une molécule de glucose se combine avec le groupe amine d'une molécule de lysine dans une protéine pour former une imine (ou base de Schiff), avec une double liaison  entre le carbone du glucose et l'azote de la lysine.
